--- a/backend/api/servicehandler/services/Other.xlsx
+++ b/backend/api/servicehandler/services/Other.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{7B2F0FE7-9652-4621-B0FF-8E4560EEE9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26860C-3789-6243-89A6-86190D40D5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -197,9 +196,6 @@
     <t>NB</t>
   </si>
   <si>
-    <t>1-888-795-2023</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/angelsense-assistive-technology-3?nid=600751</t>
   </si>
   <si>
@@ -449,9 +445,6 @@
     <t>102 North Park Street Brantford, ONN3R 4K1</t>
   </si>
   <si>
-    <t>519-722-2685</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/autism-information-services-british-columbia?nid=561716</t>
   </si>
   <si>
@@ -629,9 +622,6 @@
     <t>3 Valley ford Avenue Dartmouth, NSB2X 1W8</t>
   </si>
   <si>
-    <t>1-888-435-3232</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/brighter-futures-coalition-st-johns-and-district?nid=567951</t>
   </si>
   <si>
@@ -737,9 +727,6 @@
     <t>Burnaby, BC</t>
   </si>
   <si>
-    <t>1-844-795-8324</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/canadian-association-muslims-disabilities?nid=570786</t>
   </si>
   <si>
@@ -749,9 +736,6 @@
     <t>42 Vermont Ave Ottawa, ONK2G 6M1</t>
   </si>
   <si>
-    <t>1(866) 897-8668</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/canlearn?nid=559016</t>
   </si>
   <si>
@@ -887,9 +871,6 @@
     <t>53 Bond Street Oakville, ONL6K1L8</t>
   </si>
   <si>
-    <t>1(905) 844-7864</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/centre-dexcellence-en-autisme-de-la-peninsule-acadienne-inc?nid=579066</t>
   </si>
   <si>
@@ -1019,9 +1000,6 @@
     <t>9-1850 Northfield Rd Nanaimo, BCV9R 3B4</t>
   </si>
   <si>
-    <t>250-667-7597</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/clay-tree-society?nid=562421</t>
   </si>
   <si>
@@ -1079,9 +1057,6 @@
     <t>MB</t>
   </si>
   <si>
-    <t>1 800-855-0511</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/community-ophysiotherapyions?nid=559296</t>
   </si>
   <si>
@@ -1163,9 +1138,6 @@
     <t>Grand Falls-Winsor Office, P.O Box 559, 42 Hardy Avenue Grand Falls - Windsor, NLA2A 2J9</t>
   </si>
   <si>
-    <t>1(888)6324555</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/department-advanced-education-skills-labour-central-region?nid=582616</t>
   </si>
   <si>
@@ -1184,9 +1156,6 @@
     <t>4631 Richardson Way Calgary, ABT3E 7B8</t>
   </si>
   <si>
-    <t>403-240-3111</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/dogs-wings-assistance-dogs-society?nid=559376</t>
   </si>
   <si>
@@ -1253,9 +1222,6 @@
     <t>655 Riddell Road Orangeville, ONL9W 4Z5</t>
   </si>
   <si>
-    <t>5199411530 x278</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/early-childhood-family-resource-centre-westmorland-alber?nid=567481</t>
   </si>
   <si>
@@ -1397,9 +1363,6 @@
     <t>227 6th Street New Westminster, BCV3L 3A5</t>
   </si>
   <si>
-    <t>604 540 8374</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/familysmart?nid=562946</t>
   </si>
   <si>
@@ -1469,9 +1432,6 @@
     <t>596 Blueridge Ave  North Vancouver, BCV7R 2J2</t>
   </si>
   <si>
-    <t>604 528 0560</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/frog-hollow-neighbourhood-house?nid=563161</t>
   </si>
   <si>
@@ -1571,9 +1531,6 @@
     <t>231 Elm Beaconsfield, QCH9W 2E2</t>
   </si>
   <si>
-    <t>5146953914#3304</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/hull-services?nid=559686</t>
   </si>
   <si>
@@ -1631,9 +1588,6 @@
     <t>4825 Mount Royal Gate SW Calgary, ABT3E 6K6</t>
   </si>
   <si>
-    <t>403.440.6872</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/independent-advocacy?nid=559736</t>
   </si>
   <si>
@@ -1787,9 +1741,6 @@
     <t>Just 4 U Family Services</t>
   </si>
   <si>
-    <t>403- 590-2122</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/just-family-home-care-etobicoke?nid=606466</t>
   </si>
   <si>
@@ -1799,9 +1750,6 @@
     <t>600-3250 Bloor St W  Etobicoke, ONL7G 0N5</t>
   </si>
   <si>
-    <t>416-480-7254</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/kathleen-rooney?nid=576761</t>
   </si>
   <si>
@@ -1871,9 +1819,6 @@
     <t>3230 Yonge Street Unit 1924 Toronto, ONM4N 3P6</t>
   </si>
   <si>
-    <t>1-855-386-5678</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/learning-disabilities-association-fraser-south-chapter?nid=588471</t>
   </si>
   <si>
@@ -1883,9 +1828,6 @@
     <t>#101 - 14225 57 Avenue Surrey, BCV3X 0H6</t>
   </si>
   <si>
-    <t>604-591-5156</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/lethbridge-family-services-counselling-outreach-and-educ?nid=560161</t>
   </si>
   <si>
@@ -1907,9 +1849,6 @@
     <t>Whitemud Equine Learning Centre association 12510 - Fox Drive Calgary, ABT6G 2L6</t>
   </si>
   <si>
-    <t>780-476-1233</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/loramar-services-ltd?nid=560191</t>
   </si>
   <si>
@@ -1928,9 +1867,6 @@
     <t>60 Needham St Nanaimo, BCV9T2N3</t>
   </si>
   <si>
-    <t>250-591-0102</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/nova-scotia-early-childhood-development-intervention-services?nid=568336</t>
   </si>
   <si>
@@ -1940,9 +1876,6 @@
     <t>276 Bedford Highway Suite 104 Halifax , NSB3M 2K6</t>
   </si>
   <si>
-    <t>1-844-292-6730</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/oxford-learning-centre?nid=588601</t>
   </si>
   <si>
@@ -1952,18 +1885,12 @@
     <t>203-1595 McKenzie Ave. Victoria, BCV8N 1A4</t>
   </si>
   <si>
-    <t>250.999.0242</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/pure-magic-vacations?nid=596271</t>
   </si>
   <si>
     <t>Pure Magic Vacations</t>
   </si>
   <si>
-    <t>289-404-3265</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/school-easy-edmonton?nid=588691</t>
   </si>
   <si>
@@ -1985,9 +1912,6 @@
     <t>60 Vivaldi Drive Thornhill, ONL4J 8Z4</t>
   </si>
   <si>
-    <t>647 295 0169</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/strategic-learning-clinic?nid=588761</t>
   </si>
   <si>
@@ -1997,9 +1921,6 @@
     <t>5784 McAlear Avenue Cote Saint Luc, QCH4W 2H1</t>
   </si>
   <si>
-    <t>514-966-1553</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/penticton-centre-exceptional-learning?nid=588806</t>
   </si>
   <si>
@@ -2009,9 +1930,6 @@
     <t>120-3547 Skaha Lake Road Penticton, BCV2A 7K2</t>
   </si>
   <si>
-    <t>236-422-0207</t>
-  </si>
-  <si>
     <t>Myautism webpage Info</t>
   </si>
   <si>
@@ -2022,13 +1940,94 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>(888) 795-2023</t>
+  </si>
+  <si>
+    <t>(519) 722-2685</t>
+  </si>
+  <si>
+    <t>(888) 435-3232</t>
+  </si>
+  <si>
+    <t>(844) 795-8324</t>
+  </si>
+  <si>
+    <t>(866) 897-8668</t>
+  </si>
+  <si>
+    <t>(905) 844-7864</t>
+  </si>
+  <si>
+    <t>(250) 667-7597</t>
+  </si>
+  <si>
+    <t>(800) 855-0511</t>
+  </si>
+  <si>
+    <t>(888) 632-4555</t>
+  </si>
+  <si>
+    <t>(403) 240-3111</t>
+  </si>
+  <si>
+    <t>(519) 941-1530-278</t>
+  </si>
+  <si>
+    <t>(604) 540-8374</t>
+  </si>
+  <si>
+    <t>(604) 528-0560</t>
+  </si>
+  <si>
+    <t>(514) 695-3914-3304</t>
+  </si>
+  <si>
+    <t>(403) 440-6872</t>
+  </si>
+  <si>
+    <t>(403) 590-2122</t>
+  </si>
+  <si>
+    <t>(416) 480-7254</t>
+  </si>
+  <si>
+    <t>(855) 386-5678</t>
+  </si>
+  <si>
+    <t>(604) 591-5156</t>
+  </si>
+  <si>
+    <t>(780) 476-1233</t>
+  </si>
+  <si>
+    <t>(250) 591-0102</t>
+  </si>
+  <si>
+    <t>(844) 292-6730</t>
+  </si>
+  <si>
+    <t>(250) 999-0242</t>
+  </si>
+  <si>
+    <t>(289) 404-3265</t>
+  </si>
+  <si>
+    <t>(647) 295-0169</t>
+  </si>
+  <si>
+    <t>(514) 966-1553</t>
+  </si>
+  <si>
+    <t>(236) 422-0207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2040,6 +2039,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2409,33 +2414,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="29.875" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2656,2278 +2661,2279 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
       <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
       <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>108</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>112</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>115</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>116</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>119</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>120</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>122</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>123</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>124</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>126</v>
       </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>130</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>132</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>133</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>134</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
         <v>139</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>140</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>141</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B45" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
         <v>143</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>145</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B46" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>147</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>149</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B47" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>152</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>153</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>155</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>156</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>157</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B49" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
         <v>159</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>160</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>161</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B50" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
         <v>163</v>
-      </c>
-      <c r="B50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" t="s">
-        <v>165</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
         <v>166</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>167</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>168</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D52" t="s">
         <v>170</v>
       </c>
-      <c r="B52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>171</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D53" t="s">
         <v>173</v>
       </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>174</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B54" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
         <v>176</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>177</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>178</v>
       </c>
-      <c r="D54" t="s">
+      <c r="B55" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
         <v>180</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>181</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>182</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B56" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
         <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" t="s">
-        <v>186</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
         <v>187</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>188</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>189</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B58" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>192</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>193</v>
       </c>
-      <c r="D58" t="s">
+      <c r="B59" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
         <v>195</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>196</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>197</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B60" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>199</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>200</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
         <v>201</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D61" t="s">
         <v>203</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>204</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
         <v>205</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D62" t="s">
         <v>207</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>208</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
         <v>209</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C63" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D63" t="s">
         <v>211</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>212</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
         <v>213</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C64" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D64" t="s">
         <v>215</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>216</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
         <v>217</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D65" t="s">
         <v>219</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>220</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
         <v>221</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D66" t="s">
         <v>223</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>224</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
         <v>225</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C67" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D67" t="s">
         <v>227</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>228</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
         <v>229</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D68" t="s">
         <v>231</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>232</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
         <v>233</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C69" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D69" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>235</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>236</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>237</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
         <v>239</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C71" t="s">
         <v>240</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D71" t="s">
         <v>241</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
         <v>243</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C72" t="s">
         <v>244</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D72" t="s">
         <v>245</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
         <v>247</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>248</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D73" t="s">
         <v>249</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
         <v>251</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
         <v>252</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D74" t="s">
         <v>253</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
         <v>255</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
         <v>256</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D75" t="s">
         <v>257</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
         <v>259</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
         <v>260</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D76" t="s">
         <v>261</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B77" t="s">
         <v>263</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C77" t="s">
         <v>264</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D77" t="s">
         <v>265</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B78" t="s">
         <v>267</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C78" t="s">
         <v>268</v>
-      </c>
-      <c r="C77" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>271</v>
-      </c>
-      <c r="B78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78" t="s">
-        <v>273</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" t="s">
         <v>274</v>
       </c>
-      <c r="B79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D80" t="s">
         <v>275</v>
       </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B81" t="s">
         <v>277</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C81" t="s">
         <v>278</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D81" t="s">
         <v>279</v>
       </c>
-      <c r="D80" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B82" t="s">
         <v>281</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C82" t="s">
         <v>282</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D82" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>283</v>
       </c>
-      <c r="D81" t="s">
+      <c r="B83" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C83" t="s">
         <v>285</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D83" t="s">
         <v>286</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>287</v>
       </c>
-      <c r="D82" t="s">
+      <c r="B84" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C84" t="s">
         <v>289</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D84" t="s">
         <v>290</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>291</v>
       </c>
-      <c r="D83" t="s">
+      <c r="B85" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C85" t="s">
         <v>293</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D85" t="s">
         <v>294</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>295</v>
       </c>
-      <c r="D84" t="s">
+      <c r="B86" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C86" t="s">
         <v>297</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D86" t="s">
         <v>298</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>299</v>
       </c>
-      <c r="D85" t="s">
+      <c r="B87" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C87" t="s">
         <v>301</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D87" t="s">
         <v>302</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>303</v>
       </c>
-      <c r="D86" t="s">
+      <c r="B88" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C88" t="s">
         <v>305</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D88" t="s">
         <v>306</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>307</v>
       </c>
-      <c r="D87" t="s">
+      <c r="B89" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C89" t="s">
         <v>309</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D89" t="s">
         <v>310</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>311</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B90" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C90" t="s">
         <v>313</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D90" t="s">
         <v>314</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>315</v>
       </c>
-      <c r="D89" t="s">
+      <c r="B91" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C91" t="s">
         <v>317</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D91" t="s">
         <v>318</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>319</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B92" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C92" t="s">
         <v>321</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D92" t="s">
         <v>322</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>323</v>
       </c>
-      <c r="D91" t="s">
+      <c r="B93" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C93" t="s">
         <v>325</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D93" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>326</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B94" t="s">
         <v>327</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C94" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="D94" t="s">
         <v>329</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>330</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B95" t="s">
         <v>331</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C95" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="D95" t="s">
         <v>333</v>
       </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>334</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B96" t="s">
         <v>335</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C96" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D96" t="s">
         <v>337</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>338</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B97" t="s">
         <v>339</v>
       </c>
-      <c r="D95" t="s">
+      <c r="C97" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="D97" t="s">
         <v>341</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>342</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B98" t="s">
         <v>343</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C98" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="D98" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>345</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>346</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>347</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>349</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>350</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>351</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D100" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>353</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>354</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>355</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>357</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>358</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>359</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>361</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>362</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>363</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>365</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>366</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>367</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>369</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>370</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>371</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B106" t="s">
         <v>373</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C106" t="s">
         <v>374</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D106" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>375</v>
       </c>
-      <c r="D104" t="s">
+      <c r="B107" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C107" t="s">
         <v>377</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D107" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>378</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B108" t="s">
         <v>379</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C108" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="D108" t="s">
         <v>381</v>
       </c>
-      <c r="B106" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>382</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B109" t="s">
+        <v>379</v>
+      </c>
+      <c r="C109" t="s">
         <v>383</v>
       </c>
-      <c r="D106" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="D109" t="s">
         <v>384</v>
       </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>385</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B110" t="s">
         <v>386</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C110" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D110" t="s">
         <v>388</v>
       </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>389</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B111" t="s">
         <v>390</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C111" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D111" t="s">
         <v>392</v>
       </c>
-      <c r="B109" t="s">
-        <v>389</v>
-      </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>393</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B112" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C112" t="s">
         <v>395</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D112" t="s">
         <v>396</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>397</v>
       </c>
-      <c r="D110" t="s">
+      <c r="B113" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C113" t="s">
         <v>399</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D113" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>400</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B114" t="s">
         <v>401</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C114" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="D114" t="s">
         <v>403</v>
       </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>404</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B115" t="s">
         <v>405</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C115" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="D115" t="s">
         <v>407</v>
       </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>408</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B116" t="s">
         <v>409</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C116" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="D116" t="s">
         <v>411</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>412</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B117" t="s">
         <v>413</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C117" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="D117" t="s">
         <v>415</v>
       </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>416</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B118" t="s">
         <v>417</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="D118" t="s">
         <v>419</v>
       </c>
-      <c r="B116" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>420</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B119" t="s">
         <v>421</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C119" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="D119" t="s">
         <v>423</v>
       </c>
-      <c r="B117" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>424</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B120" t="s">
         <v>425</v>
       </c>
-      <c r="D117" t="s">
+      <c r="C120" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="D120" t="s">
         <v>427</v>
       </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>428</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B121" t="s">
         <v>429</v>
       </c>
-      <c r="D118" t="s">
+      <c r="C121" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="D121" t="s">
         <v>431</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>432</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B122" t="s">
         <v>433</v>
       </c>
-      <c r="D119" t="s">
+      <c r="C122" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="D122" t="s">
         <v>435</v>
       </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>436</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B123" t="s">
         <v>437</v>
       </c>
-      <c r="D120" t="s">
+      <c r="C123" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="D123" t="s">
         <v>439</v>
       </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>440</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B124" t="s">
         <v>441</v>
       </c>
-      <c r="D121" t="s">
+      <c r="C124" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="D124" t="s">
         <v>443</v>
       </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>444</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B125" t="s">
         <v>445</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C125" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="D125" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>447</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
         <v>448</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C126" t="s">
         <v>449</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D126" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>451</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B127" t="s">
         <v>452</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C127" t="s">
         <v>453</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>455</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B128" t="s">
         <v>456</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C128" t="s">
         <v>457</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D128" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>459</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B129" t="s">
         <v>460</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C129" t="s">
         <v>461</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D129" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>463</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
         <v>464</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C130" t="s">
         <v>465</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D130" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>467</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>468</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C131" t="s">
         <v>469</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B132" t="s">
         <v>471</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C132" t="s">
         <v>472</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D132" t="s">
         <v>473</v>
       </c>
-      <c r="D129" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B133" t="s">
         <v>475</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C133" t="s">
         <v>476</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D133" t="s">
         <v>477</v>
       </c>
-      <c r="D130" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B134" t="s">
+        <v>475</v>
+      </c>
+      <c r="C134" t="s">
         <v>479</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D134" t="s">
         <v>480</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>481</v>
       </c>
-      <c r="D131" t="s">
+      <c r="B135" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C135" t="s">
         <v>483</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D135" t="s">
         <v>484</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>485</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B136" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C136" t="s">
         <v>487</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D136" t="s">
         <v>488</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>489</v>
       </c>
-      <c r="D133" t="s">
+      <c r="B137" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C137" t="s">
         <v>491</v>
       </c>
-      <c r="B134" t="s">
-        <v>488</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D137" t="s">
         <v>492</v>
       </c>
-      <c r="D134" t="s">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B138" t="s">
+        <v>490</v>
+      </c>
+      <c r="C138" t="s">
         <v>494</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D138" t="s">
         <v>495</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>496</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B139" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C139" t="s">
         <v>498</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D139" t="s">
         <v>499</v>
       </c>
-      <c r="C136" t="s">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>500</v>
       </c>
-      <c r="D136" t="s">
+      <c r="B140" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C140" t="s">
         <v>502</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D140" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>503</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B141" t="s">
         <v>504</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C141" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="D141" t="s">
         <v>506</v>
       </c>
-      <c r="B138" t="s">
-        <v>503</v>
-      </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>507</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B142" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C142" t="s">
         <v>509</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D142" t="s">
         <v>510</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>511</v>
       </c>
-      <c r="D139" t="s">
+      <c r="B143" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C143" t="s">
         <v>513</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D143" t="s">
         <v>514</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>515</v>
       </c>
-      <c r="D140" t="s">
+      <c r="B144" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="C144" t="s">
         <v>517</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D144" t="s">
         <v>518</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>519</v>
       </c>
-      <c r="D141" t="s">
+      <c r="B145" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C145" t="s">
         <v>521</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D145" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>522</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B146" t="s">
         <v>523</v>
       </c>
-      <c r="D142" t="s">
+      <c r="C146" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="D146" t="s">
         <v>525</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>526</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B147" t="s">
         <v>527</v>
       </c>
-      <c r="D143" t="s">
+      <c r="C147" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="D147" t="s">
         <v>529</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>530</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B148" t="s">
         <v>531</v>
       </c>
-      <c r="D144" t="s">
+      <c r="C148" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="D148" t="s">
         <v>533</v>
       </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>534</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B149" t="s">
         <v>535</v>
       </c>
-      <c r="D145" t="s">
+      <c r="C149" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="D149" t="s">
         <v>537</v>
       </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>538</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B150" t="s">
         <v>539</v>
       </c>
-      <c r="D146" t="s">
+      <c r="C150" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>541</v>
-      </c>
-      <c r="B147" t="s">
-        <v>542</v>
-      </c>
-      <c r="C147" t="s">
-        <v>543</v>
-      </c>
-      <c r="D147" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>545</v>
-      </c>
-      <c r="B148" t="s">
-        <v>546</v>
-      </c>
-      <c r="C148" t="s">
-        <v>547</v>
-      </c>
-      <c r="D148" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>549</v>
-      </c>
-      <c r="B149" t="s">
-        <v>550</v>
-      </c>
-      <c r="C149" t="s">
-        <v>551</v>
-      </c>
-      <c r="D149" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>553</v>
-      </c>
-      <c r="B150" t="s">
-        <v>554</v>
-      </c>
-      <c r="C150" t="s">
-        <v>555</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B151" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C151" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>543</v>
+      </c>
+      <c r="B152" t="s">
+        <v>544</v>
+      </c>
+      <c r="C152" t="s">
+        <v>545</v>
+      </c>
+      <c r="D152" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>547</v>
+      </c>
+      <c r="B153" t="s">
+        <v>548</v>
+      </c>
+      <c r="C153" t="s">
+        <v>549</v>
+      </c>
+      <c r="D153" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>551</v>
+      </c>
+      <c r="B154" t="s">
+        <v>552</v>
+      </c>
+      <c r="C154" t="s">
+        <v>553</v>
+      </c>
+      <c r="D154" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>555</v>
+      </c>
+      <c r="B155" t="s">
+        <v>556</v>
+      </c>
+      <c r="C155" t="s">
+        <v>557</v>
+      </c>
+      <c r="D155" t="s">
         <v>558</v>
       </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>559</v>
       </c>
-      <c r="C152" t="s">
+      <c r="B156" t="s">
         <v>560</v>
       </c>
-      <c r="D152" t="s">
+      <c r="C156" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="D156" t="s">
         <v>562</v>
       </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>563</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B157" t="s">
         <v>564</v>
       </c>
-      <c r="D153" t="s">
+      <c r="C157" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D157" t="s">
         <v>566</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>567</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B158" t="s">
         <v>568</v>
       </c>
-      <c r="D154" t="s">
+      <c r="C158" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="D158" t="s">
         <v>570</v>
       </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>571</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B159" t="s">
         <v>572</v>
       </c>
-      <c r="D155" t="s">
+      <c r="C159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B160" t="s">
         <v>574</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C160" t="s">
         <v>575</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D160" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>576</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B161" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="C161" t="s">
         <v>578</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D161" t="s">
         <v>579</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>580</v>
       </c>
-      <c r="D157" t="s">
+      <c r="B162" t="s">
+        <v>577</v>
+      </c>
+      <c r="C162" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="D162" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>582</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B163" t="s">
         <v>583</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C163" t="s">
         <v>584</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D163" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>586</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B164" t="s">
         <v>587</v>
       </c>
-      <c r="C159" t="s">
-        <v>77</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C164" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="D164" t="s">
         <v>589</v>
       </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>590</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B165" t="s">
         <v>591</v>
       </c>
-      <c r="D160" t="s">
+      <c r="C165" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="D165" t="s">
         <v>593</v>
       </c>
-      <c r="B161" t="s">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>594</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B166" t="s">
         <v>595</v>
       </c>
-      <c r="D161" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>597</v>
-      </c>
-      <c r="B162" t="s">
-        <v>594</v>
-      </c>
-      <c r="C162" t="s">
-        <v>598</v>
-      </c>
-      <c r="D162" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>599</v>
-      </c>
-      <c r="B163" t="s">
-        <v>600</v>
-      </c>
-      <c r="C163" t="s">
-        <v>601</v>
-      </c>
-      <c r="D163" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>603</v>
-      </c>
-      <c r="B164" t="s">
-        <v>604</v>
-      </c>
-      <c r="C164" t="s">
-        <v>605</v>
-      </c>
-      <c r="D164" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>607</v>
-      </c>
-      <c r="B165" t="s">
-        <v>608</v>
-      </c>
-      <c r="C165" t="s">
-        <v>609</v>
-      </c>
-      <c r="D165" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>611</v>
-      </c>
-      <c r="B166" t="s">
-        <v>612</v>
-      </c>
       <c r="C166" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D166" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>596</v>
+      </c>
+      <c r="B167" t="s">
+        <v>597</v>
+      </c>
+      <c r="C167" t="s">
+        <v>598</v>
+      </c>
+      <c r="D167" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>599</v>
+      </c>
+      <c r="B168" t="s">
+        <v>600</v>
+      </c>
+      <c r="C168" t="s">
+        <v>601</v>
+      </c>
+      <c r="D168" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>602</v>
+      </c>
+      <c r="B169" t="s">
+        <v>603</v>
+      </c>
+      <c r="C169" t="s">
+        <v>604</v>
+      </c>
+      <c r="D169" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>606</v>
+      </c>
+      <c r="B170" t="s">
+        <v>607</v>
+      </c>
+      <c r="C170" t="s">
+        <v>608</v>
+      </c>
+      <c r="D170" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>609</v>
+      </c>
+      <c r="B171" t="s">
+        <v>610</v>
+      </c>
+      <c r="C171" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>612</v>
+      </c>
+      <c r="B172" t="s">
         <v>613</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C172" t="s">
         <v>614</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D172" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>615</v>
       </c>
-      <c r="D167" t="s">
+      <c r="B173" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C173" t="s">
         <v>617</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D173" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>618</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B174" t="s">
         <v>619</v>
       </c>
-      <c r="D168" t="s">
+      <c r="C174" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="D174" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>621</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B175" t="s">
         <v>622</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C175" t="s">
+        <v>67</v>
+      </c>
+      <c r="D175" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>623</v>
       </c>
-      <c r="D169" t="s">
+      <c r="B176" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C176" t="s">
         <v>625</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D176" t="s">
         <v>626</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>627</v>
       </c>
-      <c r="D170" t="s">
+      <c r="B177" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C177" t="s">
         <v>629</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D177" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>630</v>
       </c>
-      <c r="C171" t="s">
-        <v>77</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="B178" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C178" t="s">
         <v>632</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D178" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>633</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B179" t="s">
         <v>634</v>
       </c>
-      <c r="D172" t="s">
+      <c r="C179" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>636</v>
-      </c>
-      <c r="B173" t="s">
-        <v>637</v>
-      </c>
-      <c r="C173" t="s">
-        <v>638</v>
-      </c>
-      <c r="D173" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>640</v>
-      </c>
-      <c r="B174" t="s">
-        <v>641</v>
-      </c>
-      <c r="C174" t="s">
-        <v>642</v>
-      </c>
-      <c r="D174" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>644</v>
-      </c>
-      <c r="B175" t="s">
-        <v>645</v>
-      </c>
-      <c r="C175" t="s">
-        <v>68</v>
-      </c>
-      <c r="D175" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>647</v>
-      </c>
-      <c r="B176" t="s">
-        <v>648</v>
-      </c>
-      <c r="C176" t="s">
-        <v>649</v>
-      </c>
-      <c r="D176" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>651</v>
-      </c>
-      <c r="B177" t="s">
-        <v>652</v>
-      </c>
-      <c r="C177" t="s">
-        <v>653</v>
-      </c>
-      <c r="D177" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>655</v>
-      </c>
-      <c r="B178" t="s">
-        <v>656</v>
-      </c>
-      <c r="C178" t="s">
-        <v>657</v>
-      </c>
-      <c r="D178" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>659</v>
-      </c>
-      <c r="B179" t="s">
-        <v>660</v>
-      </c>
-      <c r="C179" t="s">
-        <v>661</v>
-      </c>
       <c r="D179" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
